--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_210.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_210.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,722 +488,688 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.2202898550724638</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_124</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_139</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.3736263736263736</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
+          <t>[['C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(1.92, 5.28)]</t>
+          <t>[['A#:maj', 'D#:min', 'A#:maj', 'D#:min', 'A#:maj', 'D#:min']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(6.92, 13.46)]</t>
+          <t>[('0:00:49.480000', '0:01:02.360000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:00.660000', '0:00:08.220000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>low</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>schubert-winterreise_52</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_69</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D3" t="inlineStr">
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_170</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.05796064400715564</v>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>[['D:min', 'A:7/E', 'D:min']]</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
-      </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(1.44, 6.66)]</t>
+          <t>[['G:min/D', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(42.36, 50.36)]</t>
+          <t>[('0:00:01.440000', '0:00:06.660000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
+          <t>[('0:00:40.820000', '0:00:43.620000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
           <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_176</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_171</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_198</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.421195652173913</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['A#:7', 'D#:min/A#', 'D#:min']]</t>
+          <t>[['C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(12.78, 16.74)]</t>
+          <t>[['B:7/A', 'E:maj/G#', 'E:maj/B', 'B:7', 'E:maj/G#']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(36.18, 37.98)]</t>
+          <t>[('0:00:20.420000', '0:00:24.160000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:03:50.780000', '0:04:06.860000')]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_109</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_93</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.06976744186046512</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['F:maj/C', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>isophonics_274</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_182</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.4333333333333333</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['F:7', 'A#:min', 'A#:min'], ['C#:maj/G#', 'G#:7', 'C#:maj']]</t>
+          <t>[['Ab', 'Db', 'Ab', 'Db']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(12.54, 25.94), (69.24, 75.88)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(16.26, 21.14), (36.6, 39.0)]</t>
+          <t>[('0:00:03.129454', '0:00:05.822970')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:02:34.020000', '0:02:40.380000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>low</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>isophonics_277</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>isophonics_268</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.09411764705882353</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['B', 'E', 'E']]</t>
-        </is>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_188</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.2</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'A']]</t>
+          <t>[['A', 'E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(14.402743, 18.779705)]</t>
+          <t>[['A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(6.09, 13.659705)]</t>
+          <t>[('0:00:31.840929', '0:00:39.410634')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
+          <t>[('0:02:12.380000', '0:02:14.600000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
           <t>spotify:track:2RnPATK99oGOZygnD2GTO6</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:7DD7eSuYSC5xk2ArU62esN</t>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_152</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_59</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_117</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min/C', 'F:min']]</t>
+          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(13.66, 17.9)]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(34.56, 36.42)]</t>
+          <t>[('0:00:17.180000', '0:00:48.160000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:27.760000', '0:00:40.180000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_0</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_106</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_94</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_79</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.1846153846153846</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['F:7/A#', 'A#:min', 'D#:min/A#', 'A#:min']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(74.1, 80.04)]</t>
+          <t>[['E:7', 'A:min', 'D:min', 'A:min']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(39.84, 47.28)]</t>
+          <t>[('0:00:27.520000', '0:00:38.500000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
+          <t>[('0:00:53.280000', '0:01:05.120000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
           <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_94</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.06153846153846154</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['G:min/A#', 'C:min', 'G:min/A#'], ['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>isophonics_255</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_197</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.1136044880785414</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['A#:min', 'D#:min/A#', 'A#:min'], ['A#:min/F', 'F:7', 'A#:min']]</t>
+          <t>[['D:min', 'G:min/5', 'D:min']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(99.6, 111.62), (46.52, 48.94)]</t>
+          <t>[['F#:min', 'B:min/F#', 'F#:min']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(30.24, 38.5), (84.62, 91.74)]</t>
+          <t>[('0:00:27.789047', '0:00:31.109501')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:00.380000', '0:00:03.700000')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>spotify:track:6rHh8urosEFRI67xVa6fzU</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_154</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2687747035573123</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7']]</t>
-        </is>
+          <t>schubert-winterreise_213</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_52</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.1348837209302326</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#']]</t>
+          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(20.42, 23.5)]</t>
+          <t>[['D:min', 'A:7/E', 'D:min']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(9.24, 17.72)]</t>
+          <t>[('0:00:42.940000', '0:00:51.080000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:01.440000', '0:00:06.660000')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.2202898550724638</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_119</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_200</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(8.18, 14.18)]</t>
+          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(1.92, 5.28)]</t>
+          <t>[('0:00:34.300000', '0:00:49.840000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:16.340000', '0:00:44.360000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_43</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_109</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_17</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_188</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.5333333333333333</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(41.32, 48.94)]</t>
+          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(1.54, 6.88)]</t>
+          <t>[('0:02:18.020000', '0:02:23.320000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:02:08.760000', '0:02:14')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_79</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_164</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
-        </is>
+          <t>isophonics_101</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_59</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.4375</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
+          <t>[['C#', 'F#/5', 'C#']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(17.38, 61.66)]</t>
+          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(14.52, 59.64)]</t>
+          <t>[('0:00:31.469410', '0:01:58.925813')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:00:59.220000', '0:01:06.880000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_20</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_116</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_123</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['D#:min', 'A#:7', 'D#:min']]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(39.04, 46.1)]</t>
+          <t>[['F:min', 'C:maj/F', 'F:min', 'C:maj/F', 'F:min', 'C:7/F', 'F:min', 'C:7/F', 'F:min', 'C:maj/F', 'F:min', 'C:maj/F', 'F:min', 'C:maj/F', 'F:min', 'C:maj/F', 'F:min', 'C:maj/F', 'F:min', 'C:maj/F', 'F:min', 'C:maj/F', 'F:min', 'C:maj/F', 'F:min', 'C:7/F', 'F:min', 'C:7/F', 'F:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(9.1, 13.86)]</t>
+          <t>[('0:00:08.440000', '0:02:12.720000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:05.840000', '0:01:44.720000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1177257525083612</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_69</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_43</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
+          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(46.22, 48.94)]</t>
+          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(1.98, 6.3)]</t>
+          <t>[('0:01:30.780000', '0:01:53.600000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:01:27.440000', '0:01:50.440000')]</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_146</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1036789297658863</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'E:min/B', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_27</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>isophonics_109</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'A#:min/F', 'F:min']]</t>
+          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(81.1, 87.58), (27.46, 36.02)]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(2.56, 4.8), (0.3, 3.34)]</t>
+          <t>[('0:01:02.480000', '0:01:04.920000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_168</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_62</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['A#:min/F', 'F:7', 'A#:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(74.5, 80.42)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(40.12, 47.88)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:01:34.925000', '0:01:40.821000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
